--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEADER-SXBH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD328108-8E0D-4135-A62D-89BE63E4BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4724F04-37E6-4862-865F-A4FD162EDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -6078,7 +6078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6143,6 +6143,15 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6426,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7320,7 +7329,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -8056,7 +8065,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8796,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -9161,16 +9170,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
-        <v>483</v>
+        <v>1477</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>484</v>
+        <v>1478</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>485</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12474,10 +12483,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -12713,7 +12722,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
         <v>1437</v>
       </c>
@@ -12727,7 +12736,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
         <v>1441</v>
       </c>
@@ -12741,7 +12750,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
         <v>1445</v>
       </c>
@@ -12755,7 +12764,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
         <v>1449</v>
       </c>
@@ -12769,7 +12778,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>1453</v>
       </c>
@@ -12783,7 +12792,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>1457</v>
       </c>
@@ -12797,7 +12806,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>1461</v>
       </c>
@@ -12811,7 +12820,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>1465</v>
       </c>
@@ -12825,7 +12834,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
         <v>1469</v>
       </c>
@@ -12839,7 +12848,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
         <v>1473</v>
       </c>
@@ -12853,21 +12862,24 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>1479</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
         <v>1481</v>
       </c>
@@ -12881,7 +12893,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
         <v>1485</v>
       </c>
@@ -12895,7 +12907,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
         <v>1489</v>
       </c>
@@ -12909,7 +12921,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
         <v>1493</v>
       </c>
@@ -12923,7 +12935,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
         <v>1497</v>
       </c>

--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4724F04-37E6-4862-865F-A4FD162EDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6D0E3-116D-48F1-AE61-AAD02011C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="2000">
   <si>
     <t>84842601263</t>
   </si>
@@ -5959,6 +5959,81 @@
   </si>
   <si>
     <t>8984020001150017359</t>
+  </si>
+  <si>
+    <t>007785070561009</t>
+  </si>
+  <si>
+    <t>007785070562668</t>
+  </si>
+  <si>
+    <t>007785070561199</t>
+  </si>
+  <si>
+    <t>007785070563906</t>
+  </si>
+  <si>
+    <t>007785070568061</t>
+  </si>
+  <si>
+    <t>007785070564128</t>
+  </si>
+  <si>
+    <t>007785070568772</t>
+  </si>
+  <si>
+    <t>007785070561017</t>
+  </si>
+  <si>
+    <t>007785070563583</t>
+  </si>
+  <si>
+    <t>007785070560670</t>
+  </si>
+  <si>
+    <t>007785070564227</t>
+  </si>
+  <si>
+    <t>007785070570026</t>
+  </si>
+  <si>
+    <t>007785070560803</t>
+  </si>
+  <si>
+    <t>007785070565737</t>
+  </si>
+  <si>
+    <t>007785070565497</t>
+  </si>
+  <si>
+    <t>007785070566156</t>
+  </si>
+  <si>
+    <t>007785070560852</t>
+  </si>
+  <si>
+    <t>007785070569283</t>
+  </si>
+  <si>
+    <t>007785070570042</t>
+  </si>
+  <si>
+    <t>007785070560944</t>
+  </si>
+  <si>
+    <t>007785070563443</t>
+  </si>
+  <si>
+    <t>007785070563781</t>
+  </si>
+  <si>
+    <t>007785070560787</t>
+  </si>
+  <si>
+    <t>007785070565554</t>
+  </si>
+  <si>
+    <t>007785070569390</t>
   </si>
 </sst>
 </file>
@@ -11747,10 +11822,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11759,10 +11834,11 @@
     <col min="2" max="2" width="23.42578125" style="19" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="15" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="5" max="5" width="29.5703125" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -11775,8 +11851,11 @@
       <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>1179</v>
       </c>
@@ -11789,8 +11868,9 @@
       <c r="D2" s="13" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>1183</v>
       </c>
@@ -11803,8 +11883,9 @@
       <c r="D3" s="13" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>1187</v>
       </c>
@@ -11817,8 +11898,9 @@
       <c r="D4" s="13" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>1191</v>
       </c>
@@ -11831,8 +11913,9 @@
       <c r="D5" s="13" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>1195</v>
       </c>
@@ -11845,8 +11928,9 @@
       <c r="D6" s="13" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>1199</v>
       </c>
@@ -11859,8 +11943,9 @@
       <c r="D7" s="13" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>1203</v>
       </c>
@@ -11873,8 +11958,9 @@
       <c r="D8" s="13" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>1207</v>
       </c>
@@ -11887,8 +11973,9 @@
       <c r="D9" s="13" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>1211</v>
       </c>
@@ -11901,8 +11988,9 @@
       <c r="D10" s="13" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>1215</v>
       </c>
@@ -11915,8 +12003,9 @@
       <c r="D11" s="13" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
         <v>1219</v>
       </c>
@@ -11929,8 +12018,9 @@
       <c r="D12" s="13" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
         <v>1223</v>
       </c>
@@ -11943,8 +12033,9 @@
       <c r="D13" s="13" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
         <v>1227</v>
       </c>
@@ -11957,8 +12048,9 @@
       <c r="D14" s="13" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>1231</v>
       </c>
@@ -11971,8 +12063,9 @@
       <c r="D15" s="13" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>1235</v>
       </c>
@@ -11985,8 +12078,9 @@
       <c r="D16" s="13" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>1239</v>
       </c>
@@ -11999,8 +12093,9 @@
       <c r="D17" s="13" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>1243</v>
       </c>
@@ -12013,8 +12108,9 @@
       <c r="D18" s="13" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>1247</v>
       </c>
@@ -12027,8 +12123,9 @@
       <c r="D19" s="13" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>1251</v>
       </c>
@@ -12041,8 +12138,9 @@
       <c r="D20" s="13" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>1255</v>
       </c>
@@ -12055,8 +12153,9 @@
       <c r="D21" s="13" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>1259</v>
       </c>
@@ -12069,8 +12168,9 @@
       <c r="D22" s="13" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>1263</v>
       </c>
@@ -12083,8 +12183,9 @@
       <c r="D23" s="13" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>1267</v>
       </c>
@@ -12097,8 +12198,9 @@
       <c r="D24" s="13" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>1271</v>
       </c>
@@ -12111,8 +12213,9 @@
       <c r="D25" s="13" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
         <v>1275</v>
       </c>
@@ -12125,8 +12228,11 @@
       <c r="D26" s="13" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="13" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
         <v>1279</v>
       </c>
@@ -12139,8 +12245,11 @@
       <c r="D27" s="13" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="13" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
         <v>1283</v>
       </c>
@@ -12153,8 +12262,9 @@
       <c r="D28" s="13" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
         <v>1287</v>
       </c>
@@ -12167,8 +12277,11 @@
       <c r="D29" s="13" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="13" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>1291</v>
       </c>
@@ -12181,8 +12294,11 @@
       <c r="D30" s="13" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="13" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
         <v>1295</v>
       </c>
@@ -12195,8 +12311,11 @@
       <c r="D31" s="13" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="13" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
         <v>1299</v>
       </c>
@@ -12209,8 +12328,11 @@
       <c r="D32" s="13" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="13" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
         <v>1303</v>
       </c>
@@ -12223,8 +12345,11 @@
       <c r="D33" s="13" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="13" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
         <v>1307</v>
       </c>
@@ -12237,8 +12362,11 @@
       <c r="D34" s="13" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="13" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
         <v>1311</v>
       </c>
@@ -12251,8 +12379,11 @@
       <c r="D35" s="13" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="13" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
         <v>1315</v>
       </c>
@@ -12265,8 +12396,11 @@
       <c r="D36" s="13" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="13" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
         <v>1319</v>
       </c>
@@ -12279,8 +12413,11 @@
       <c r="D37" s="13" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="13" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
         <v>1323</v>
       </c>
@@ -12293,8 +12430,11 @@
       <c r="D38" s="13" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="13" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
         <v>1327</v>
       </c>
@@ -12307,8 +12447,11 @@
       <c r="D39" s="13" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="13" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
         <v>1331</v>
       </c>
@@ -12321,8 +12464,11 @@
       <c r="D40" s="13" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="13" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
         <v>1335</v>
       </c>
@@ -12335,8 +12481,11 @@
       <c r="D41" s="13" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="13" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
         <v>1339</v>
       </c>
@@ -12349,8 +12498,11 @@
       <c r="D42" s="13" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="13" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>1343</v>
       </c>
@@ -12363,8 +12515,11 @@
       <c r="D43" s="13" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="13" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>1347</v>
       </c>
@@ -12377,8 +12532,11 @@
       <c r="D44" s="13" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="13" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>1351</v>
       </c>
@@ -12391,8 +12549,11 @@
       <c r="D45" s="13" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="13" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="12">
         <v>84842603451</v>
       </c>
@@ -12405,8 +12566,11 @@
       <c r="D46" s="13" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="13" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
         <v>1358</v>
       </c>
@@ -12419,8 +12583,11 @@
       <c r="D47" s="13" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="13" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
         <v>1362</v>
       </c>
@@ -12433,8 +12600,11 @@
       <c r="D48" s="13" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="13" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>1366</v>
       </c>
@@ -12447,8 +12617,11 @@
       <c r="D49" s="13" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="13" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>1370</v>
       </c>
@@ -12461,8 +12634,11 @@
       <c r="D50" s="13" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="13" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>1374</v>
       </c>
@@ -12474,6 +12650,9 @@
       </c>
       <c r="D51" s="13" t="s">
         <v>1377</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
@@ -12485,8 +12664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6D0E3-116D-48F1-AE61-AAD02011C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB744A-AAC0-4E03-A467-43B813412BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="2074">
   <si>
     <t>84842601263</t>
   </si>
@@ -2664,9 +2664,6 @@
     <t>8984020001150017173</t>
   </si>
   <si>
-    <t>84842603627</t>
-  </si>
-  <si>
     <t>1150017372</t>
   </si>
   <si>
@@ -2925,9 +2922,6 @@
     <t>8984020001150017399</t>
   </si>
   <si>
-    <t>84842603243</t>
-  </si>
-  <si>
     <t>1150017184</t>
   </si>
   <si>
@@ -6034,13 +6028,241 @@
   </si>
   <si>
     <t>007785070569390</t>
+  </si>
+  <si>
+    <t>007785070586162</t>
+  </si>
+  <si>
+    <t>007785070569002</t>
+  </si>
+  <si>
+    <t>007785070577237</t>
+  </si>
+  <si>
+    <t>007785070569234</t>
+  </si>
+  <si>
+    <t>007785070568152</t>
+  </si>
+  <si>
+    <t>007785070563823</t>
+  </si>
+  <si>
+    <t>007785070577351</t>
+  </si>
+  <si>
+    <t>007785070563872</t>
+  </si>
+  <si>
+    <t>007785070561058</t>
+  </si>
+  <si>
+    <t>007785070561280</t>
+  </si>
+  <si>
+    <t>007785070569226</t>
+  </si>
+  <si>
+    <t>007785070568798</t>
+  </si>
+  <si>
+    <t>007785070564185</t>
+  </si>
+  <si>
+    <t>007785070570018</t>
+  </si>
+  <si>
+    <t>007785070568830</t>
+  </si>
+  <si>
+    <t>007785070568897</t>
+  </si>
+  <si>
+    <t>007785070569986</t>
+  </si>
+  <si>
+    <t>007785070563278</t>
+  </si>
+  <si>
+    <t>007785070564300</t>
+  </si>
+  <si>
+    <t>007785070563534</t>
+  </si>
+  <si>
+    <t>007785070558807</t>
+  </si>
+  <si>
+    <t>007785070569176</t>
+  </si>
+  <si>
+    <t>007785070568129</t>
+  </si>
+  <si>
+    <t>007785070560886</t>
+  </si>
+  <si>
+    <t>007785070561090</t>
+  </si>
+  <si>
+    <t>007785070583409</t>
+  </si>
+  <si>
+    <t>007785070552594</t>
+  </si>
+  <si>
+    <t>007785070580579</t>
+  </si>
+  <si>
+    <t>007785070581098</t>
+  </si>
+  <si>
+    <t>007785070580645</t>
+  </si>
+  <si>
+    <t>007785070550721</t>
+  </si>
+  <si>
+    <t>007785070552628</t>
+  </si>
+  <si>
+    <t>007785070582468</t>
+  </si>
+  <si>
+    <t>007785070580595</t>
+  </si>
+  <si>
+    <t>007785070554731</t>
+  </si>
+  <si>
+    <t>007785070582633</t>
+  </si>
+  <si>
+    <t>007785070552453</t>
+  </si>
+  <si>
+    <t>007785070550978</t>
+  </si>
+  <si>
+    <t>007785070583474</t>
+  </si>
+  <si>
+    <t>007785070580488</t>
+  </si>
+  <si>
+    <t>007785070593119</t>
+  </si>
+  <si>
+    <t>007785070554335</t>
+  </si>
+  <si>
+    <t>007785070582419</t>
+  </si>
+  <si>
+    <t>007785070556520</t>
+  </si>
+  <si>
+    <t>007785070549459</t>
+  </si>
+  <si>
+    <t>007785070580991</t>
+  </si>
+  <si>
+    <t>007785070549640</t>
+  </si>
+  <si>
+    <t>007785070593036</t>
+  </si>
+  <si>
+    <t>007785070552784</t>
+  </si>
+  <si>
+    <t>007785070556397</t>
+  </si>
+  <si>
+    <t>007785070554376</t>
+  </si>
+  <si>
+    <t>007785070558476</t>
+  </si>
+  <si>
+    <t>007785070580470</t>
+  </si>
+  <si>
+    <t>007785070581122</t>
+  </si>
+  <si>
+    <t>007785070558450</t>
+  </si>
+  <si>
+    <t>007785070580504</t>
+  </si>
+  <si>
+    <t>#W19 0,0,388,180.*</t>
+  </si>
+  <si>
+    <t>#w40 125.212.203.39,16767.*</t>
+  </si>
+  <si>
+    <t>007785070554657</t>
+  </si>
+  <si>
+    <t>007785070552503</t>
+  </si>
+  <si>
+    <t>007785070593044</t>
+  </si>
+  <si>
+    <t>007785070580462</t>
+  </si>
+  <si>
+    <t>007785070552552</t>
+  </si>
+  <si>
+    <t>007785070543254</t>
+  </si>
+  <si>
+    <t>007785070570463</t>
+  </si>
+  <si>
+    <t>007785070580660</t>
+  </si>
+  <si>
+    <t>007785070554327</t>
+  </si>
+  <si>
+    <t>007785070582534</t>
+  </si>
+  <si>
+    <t>007785070562817</t>
+  </si>
+  <si>
+    <t>007785070564474</t>
+  </si>
+  <si>
+    <t>007785070568996</t>
+  </si>
+  <si>
+    <t>007785070580678</t>
+  </si>
+  <si>
+    <t>007785070554806</t>
+  </si>
+  <si>
+    <t>007785070548998</t>
+  </si>
+  <si>
+    <t>007785070580496</t>
+  </si>
+  <si>
+    <t>007785070556405</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6111,6 +6333,12 @@
       <name val="Time s New Roman"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6153,7 +6381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6227,6 +6455,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7432,702 +7663,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1776</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1779</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1780</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1783</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>1784</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1787</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1788</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1791</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>1792</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1795</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1796</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1799</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1800</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1803</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1804</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1807</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1808</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1811</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>1812</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1815</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1816</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1819</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1820</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1823</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1824</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1827</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1828</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1831</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1832</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1835</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1836</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1839</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>1840</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1843</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1844</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1847</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1848</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1851</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1852</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1855</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>1856</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1859</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1860</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1863</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1864</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1867</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1868</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1871</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>1872</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1875</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>1876</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1879</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>1880</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1883</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>1884</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1887</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>1888</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1891</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>1892</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1895</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>1896</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1899</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>1900</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1903</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>1904</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1907</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>1908</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1911</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>1912</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1915</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>1916</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1919</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>1920</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1923</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>1924</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1927</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>1928</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1931</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>1932</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1935</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>1936</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1939</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>1940</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1943</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>1944</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1947</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>1948</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1951</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>1952</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1955</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>1956</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1959</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>1960</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1963</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>1964</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1967</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="D50" s="13" t="s">
         <v>1968</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1971</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="D51" s="13" t="s">
         <v>1972</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -9245,16 +9476,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>485</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10350,10 +10581,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -10362,10 +10593,11 @@
     <col min="2" max="2" width="29.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="36.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -10378,8 +10610,11 @@
       <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>782</v>
       </c>
@@ -10392,8 +10627,11 @@
       <c r="D2" s="13" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="13" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>786</v>
       </c>
@@ -10406,8 +10644,11 @@
       <c r="D3" s="13" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="13" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>790</v>
       </c>
@@ -10420,8 +10661,11 @@
       <c r="D4" s="13" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="13" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>794</v>
       </c>
@@ -10434,8 +10678,11 @@
       <c r="D5" s="13" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="13" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>798</v>
       </c>
@@ -10448,8 +10695,11 @@
       <c r="D6" s="13" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="13" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="11">
         <v>84842603104</v>
       </c>
@@ -10462,8 +10712,11 @@
       <c r="D7" s="13" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="13" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>805</v>
       </c>
@@ -10476,8 +10729,11 @@
       <c r="D8" s="13" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="13" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>809</v>
       </c>
@@ -10490,8 +10746,11 @@
       <c r="D9" s="13" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="13" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>813</v>
       </c>
@@ -10504,8 +10763,11 @@
       <c r="D10" s="13" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="13" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>817</v>
       </c>
@@ -10518,8 +10780,11 @@
       <c r="D11" s="13" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="13" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
         <v>821</v>
       </c>
@@ -10532,8 +10797,11 @@
       <c r="D12" s="13" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="13" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
         <v>825</v>
       </c>
@@ -10546,8 +10814,11 @@
       <c r="D13" s="13" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="13" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
         <v>829</v>
       </c>
@@ -10560,8 +10831,11 @@
       <c r="D14" s="13" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="13" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>833</v>
       </c>
@@ -10574,8 +10848,11 @@
       <c r="D15" s="13" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="13" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>837</v>
       </c>
@@ -10588,8 +10865,11 @@
       <c r="D16" s="13" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="13" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
         <v>841</v>
       </c>
@@ -10602,8 +10882,11 @@
       <c r="D17" s="13" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="13" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="11" t="s">
         <v>845</v>
       </c>
@@ -10616,8 +10899,11 @@
       <c r="D18" s="13" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="13" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
         <v>849</v>
       </c>
@@ -10630,8 +10916,11 @@
       <c r="D19" s="13" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="13" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
         <v>853</v>
       </c>
@@ -10644,8 +10933,11 @@
       <c r="D20" s="13" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="13" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
         <v>857</v>
       </c>
@@ -10658,8 +10950,11 @@
       <c r="D21" s="13" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="13" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="11" t="s">
         <v>861</v>
       </c>
@@ -10672,8 +10967,11 @@
       <c r="D22" s="13" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="13" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>84842603214</v>
       </c>
@@ -10686,8 +10984,11 @@
       <c r="D23" s="13" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="13" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="11" t="s">
         <v>868</v>
       </c>
@@ -10700,8 +11001,11 @@
       <c r="D24" s="13" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="13" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="11" t="s">
         <v>872</v>
       </c>
@@ -10714,369 +11018,456 @@
       <c r="D25" s="13" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="E25" s="13" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11">
+        <v>84842603627</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="11" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="11" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="11" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="11" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="11" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="11" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>901</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>904</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="13" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11">
         <v>84842603905</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>943</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11">
+        <v>84842603243</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
+      <c r="C49" s="13" t="s">
         <v>967</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="E49" s="13" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="C50" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="E50" s="13" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="11" t="s">
+      <c r="C51" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>978</v>
+      <c r="E51" s="13" t="s">
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -11117,702 +11508,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>979</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>980</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>981</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>984</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>992</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>996</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1000</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1012</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1020</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1028</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1032</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>1044</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1048</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1052</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1056</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>1060</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1064</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1067</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1068</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>1076</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>1080</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>1084</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>1088</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1091</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>1092</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>1104</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1107</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>1108</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>1116</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>1120</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1123</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>1124</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1127</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>1128</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1131</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>1136</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>1144</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>1148</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1151</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>1152</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>1156</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>1164</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>1168</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>1172</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>1176</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -11824,8 +12215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11857,700 +12248,750 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>2000</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1187</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>1188</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>1999</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1192</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>2001</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>1196</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>2005</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1200</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>2002</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>2004</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1208</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>2009</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1212</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>2003</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>1216</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>2008</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1220</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>2017</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1223</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1224</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>2007</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1227</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1228</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>2012</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1231</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1232</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1236</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>2006</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1239</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1240</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1243</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>2011</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1247</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1248</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>2014</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>2016</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>2021</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>2015</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1268</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>2018</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1271</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1272</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>1984</v>
+      <c r="E26" s="26" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>1280</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>1985</v>
+      <c r="E27" s="26" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>1284</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>2020</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>1288</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>1987</v>
+      <c r="E29" s="26" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1291</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>1292</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>1986</v>
+      <c r="E30" s="26" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>1296</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>1997</v>
+      <c r="E31" s="26" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>1300</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>1988</v>
+      <c r="E32" s="26" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>1304</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>1983</v>
+      <c r="E33" s="26" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1307</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>1980</v>
+      <c r="E34" s="26" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>1312</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>1981</v>
+      <c r="E35" s="26" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>1316</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>1982</v>
+      <c r="E36" s="26" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>1320</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>1976</v>
+      <c r="E37" s="26" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>1324</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>1978</v>
+      <c r="E38" s="26" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1327</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>1328</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>1975</v>
+      <c r="E39" s="26" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>1332</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>1977</v>
+      <c r="E40" s="26" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1335</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>1336</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1979</v>
+      <c r="E41" s="26" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>1340</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1994</v>
+      <c r="E42" s="26" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1343</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>1344</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>1995</v>
+      <c r="E43" s="26" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1347</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>1348</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1998</v>
+      <c r="E44" s="26" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>1352</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1996</v>
+      <c r="E45" s="26" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -12558,105 +12999,106 @@
         <v>84842603451</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>1355</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1991</v>
+      <c r="E46" s="26" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>1359</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>1993</v>
+      <c r="E47" s="26" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1362</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>1363</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1999</v>
+      <c r="E48" s="26" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1366</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>1367</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>1992</v>
+      <c r="E49" s="26" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1370</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>1371</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1989</v>
+      <c r="E50" s="26" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>1375</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>1990</v>
+      <c r="E51" s="26" t="s">
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12693,86 +13135,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1378</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1379</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1383</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1386</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>1387</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1390</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1391</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>1395</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1398</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1399</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12780,265 +13222,265 @@
         <v>84842603475</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>1402</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1405</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1406</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1409</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1410</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>1414</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1417</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1418</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1421</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1422</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1425</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1426</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1429</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1430</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1434</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1437</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1438</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>1442</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1446</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1450</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1454</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1457</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>1458</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1462</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1466</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1470</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>1474</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -13049,7 +13491,7 @@
         <v>484</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>486</v>
@@ -13060,338 +13502,338 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>1482</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>1486</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1489</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>1490</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1493</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>1494</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1497</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>1498</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1501</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>1502</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>1506</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>1510</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>1514</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>1518</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>1522</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1525</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>1526</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1529</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>1530</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1533</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>1534</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1537</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>1538</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1541</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>1542</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1545</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>1546</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>1550</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1553</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>1554</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1557</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>1558</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>1562</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="12" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1565</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>1566</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1569</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>1570</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1573</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>1574</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>1576</v>
       </c>
     </row>
   </sheetData>
@@ -13432,226 +13874,226 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1585</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1586</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1589</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1590</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1577</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>1578</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1581</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1582</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1593</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>1594</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1597</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1598</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1601</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1602</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1605</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1606</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1609</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1610</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1613</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>1614</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1617</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1618</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1621</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1622</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1625</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1626</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1630</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1633</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1634</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1638</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13659,335 +14101,335 @@
         <v>84842603495</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>1641</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1645</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1648</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1649</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1652</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1653</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1656</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>1657</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1660</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1661</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1664</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1665</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1669</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>1673</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1676</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>1677</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>1681</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1684</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>1685</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1688</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>1689</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1692</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>1693</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1696</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>1697</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1700</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>1701</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="12" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1704</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>1705</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1708</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>1709</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1712</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>1713</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1716</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>1717</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>1721</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1724</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>1725</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>1729</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>1733</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13995,139 +14437,139 @@
         <v>84842603772</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>1736</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>1740</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1743</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>1744</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1747</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>1748</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>1752</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>1756</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1759</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>1760</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1763</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>1764</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1767</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>1768</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1771</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>1772</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>1774</v>
       </c>
     </row>
   </sheetData>

--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB744A-AAC0-4E03-A467-43B813412BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00CB7A6-E919-424C-9FCF-F45CDFD85FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="2124">
   <si>
     <t>84842601263</t>
   </si>
@@ -6256,6 +6256,156 @@
   </si>
   <si>
     <t>007785070556405</t>
+  </si>
+  <si>
+    <t>007785070593150</t>
+  </si>
+  <si>
+    <t>007785070552446</t>
+  </si>
+  <si>
+    <t>007785070583433</t>
+  </si>
+  <si>
+    <t>007785070558385</t>
+  </si>
+  <si>
+    <t>007785070558401</t>
+  </si>
+  <si>
+    <t>007785070583276</t>
+  </si>
+  <si>
+    <t>007785070550846</t>
+  </si>
+  <si>
+    <t>007785070552388</t>
+  </si>
+  <si>
+    <t>007785070554046</t>
+  </si>
+  <si>
+    <t>007785070554301</t>
+  </si>
+  <si>
+    <t>007785070583284</t>
+  </si>
+  <si>
+    <t>007785070554863</t>
+  </si>
+  <si>
+    <t>007785070582625</t>
+  </si>
+  <si>
+    <t>007785070564391</t>
+  </si>
+  <si>
+    <t>007785070593101</t>
+  </si>
+  <si>
+    <t>007785070550937</t>
+  </si>
+  <si>
+    <t>007785070558484</t>
+  </si>
+  <si>
+    <t>007785070582567</t>
+  </si>
+  <si>
+    <t>007785070554343</t>
+  </si>
+  <si>
+    <t>007785070580512</t>
+  </si>
+  <si>
+    <t>007785070581056</t>
+  </si>
+  <si>
+    <t>007785070552529</t>
+  </si>
+  <si>
+    <t>007785070564409</t>
+  </si>
+  <si>
+    <t>007785070552735</t>
+  </si>
+  <si>
+    <t>007785070552677</t>
+  </si>
+  <si>
+    <t>007785070549418</t>
+  </si>
+  <si>
+    <t>007785070582591</t>
+  </si>
+  <si>
+    <t>007785070554384</t>
+  </si>
+  <si>
+    <t>007785070582443</t>
+  </si>
+  <si>
+    <t>007785070583516</t>
+  </si>
+  <si>
+    <t>007785070552560</t>
+  </si>
+  <si>
+    <t>007785070552651</t>
+  </si>
+  <si>
+    <t>007785070562759</t>
+  </si>
+  <si>
+    <t>007785070580546</t>
+  </si>
+  <si>
+    <t>007785070552461</t>
+  </si>
+  <si>
+    <t>007785070552479</t>
+  </si>
+  <si>
+    <t>007785070549376</t>
+  </si>
+  <si>
+    <t>007785070580603</t>
+  </si>
+  <si>
+    <t>007785070556488</t>
+  </si>
+  <si>
+    <t>007785070582450</t>
+  </si>
+  <si>
+    <t>007785070555183</t>
+  </si>
+  <si>
+    <t>007785070549434</t>
+  </si>
+  <si>
+    <t>007785070552636</t>
+  </si>
+  <si>
+    <t>007785070550879</t>
+  </si>
+  <si>
+    <t>007785070558492</t>
+  </si>
+  <si>
+    <t>007785070554350</t>
+  </si>
+  <si>
+    <t>007785070580413</t>
+  </si>
+  <si>
+    <t>007785070580611</t>
+  </si>
+  <si>
+    <t>007785070581114</t>
+  </si>
+  <si>
+    <t>007785070554285</t>
   </si>
 </sst>
 </file>
@@ -10583,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E51"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -11477,10 +11627,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11489,10 +11639,11 @@
     <col min="2" max="2" width="32.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="15" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="5" max="5" width="27.140625" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -11505,8 +11656,11 @@
       <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>977</v>
       </c>
@@ -11519,8 +11673,11 @@
       <c r="D2" s="13" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="13" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>981</v>
       </c>
@@ -11533,8 +11690,11 @@
       <c r="D3" s="13" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="13" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>985</v>
       </c>
@@ -11547,8 +11707,11 @@
       <c r="D4" s="13" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="13" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>989</v>
       </c>
@@ -11561,8 +11724,11 @@
       <c r="D5" s="13" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="13" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>993</v>
       </c>
@@ -11575,8 +11741,11 @@
       <c r="D6" s="13" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="13" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>997</v>
       </c>
@@ -11589,8 +11758,11 @@
       <c r="D7" s="13" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="13" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>1001</v>
       </c>
@@ -11603,8 +11775,11 @@
       <c r="D8" s="13" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="13" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>1005</v>
       </c>
@@ -11617,8 +11792,11 @@
       <c r="D9" s="13" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="13" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>1009</v>
       </c>
@@ -11631,8 +11809,11 @@
       <c r="D10" s="13" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="13" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>1013</v>
       </c>
@@ -11645,8 +11826,11 @@
       <c r="D11" s="13" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="13" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
         <v>1017</v>
       </c>
@@ -11659,8 +11843,11 @@
       <c r="D12" s="13" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="13" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
         <v>1021</v>
       </c>
@@ -11673,8 +11860,11 @@
       <c r="D13" s="13" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="13" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
         <v>1025</v>
       </c>
@@ -11687,8 +11877,11 @@
       <c r="D14" s="13" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="13" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>1029</v>
       </c>
@@ -11701,8 +11894,11 @@
       <c r="D15" s="13" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="13" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>1033</v>
       </c>
@@ -11715,8 +11911,11 @@
       <c r="D16" s="13" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="13" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>1037</v>
       </c>
@@ -11729,8 +11928,11 @@
       <c r="D17" s="13" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="13" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
         <v>1041</v>
       </c>
@@ -11743,8 +11945,11 @@
       <c r="D18" s="13" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="13" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>1045</v>
       </c>
@@ -11757,8 +11962,11 @@
       <c r="D19" s="13" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="13" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
         <v>1049</v>
       </c>
@@ -11771,8 +11979,11 @@
       <c r="D20" s="13" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="13" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
         <v>1053</v>
       </c>
@@ -11785,8 +11996,11 @@
       <c r="D21" s="13" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="13" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>1057</v>
       </c>
@@ -11799,8 +12013,11 @@
       <c r="D22" s="13" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="13" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
         <v>1061</v>
       </c>
@@ -11813,8 +12030,11 @@
       <c r="D23" s="13" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="13" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
         <v>1065</v>
       </c>
@@ -11827,8 +12047,11 @@
       <c r="D24" s="13" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="13" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12" t="s">
         <v>1069</v>
       </c>
@@ -11841,8 +12064,11 @@
       <c r="D25" s="13" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="13" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
         <v>1073</v>
       </c>
@@ -11855,8 +12081,11 @@
       <c r="D26" s="13" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="13" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
         <v>1077</v>
       </c>
@@ -11869,8 +12098,11 @@
       <c r="D27" s="13" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="13" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
         <v>1081</v>
       </c>
@@ -11883,8 +12115,11 @@
       <c r="D28" s="13" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="13" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
         <v>1085</v>
       </c>
@@ -11897,8 +12132,11 @@
       <c r="D29" s="13" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="13" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
         <v>1089</v>
       </c>
@@ -11911,8 +12149,11 @@
       <c r="D30" s="13" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
         <v>1093</v>
       </c>
@@ -11925,8 +12166,11 @@
       <c r="D31" s="13" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="13" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
         <v>1097</v>
       </c>
@@ -11939,8 +12183,11 @@
       <c r="D32" s="13" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="13" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
         <v>1101</v>
       </c>
@@ -11953,8 +12200,11 @@
       <c r="D33" s="13" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="13" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
         <v>1105</v>
       </c>
@@ -11967,8 +12217,11 @@
       <c r="D34" s="13" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="13" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
         <v>1109</v>
       </c>
@@ -11981,8 +12234,11 @@
       <c r="D35" s="13" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="13" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
         <v>1113</v>
       </c>
@@ -11995,8 +12251,11 @@
       <c r="D36" s="13" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="13" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
         <v>1117</v>
       </c>
@@ -12009,8 +12268,11 @@
       <c r="D37" s="13" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="13" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
         <v>1121</v>
       </c>
@@ -12023,8 +12285,11 @@
       <c r="D38" s="13" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="13" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
         <v>1125</v>
       </c>
@@ -12037,8 +12302,11 @@
       <c r="D39" s="13" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="13" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
         <v>1129</v>
       </c>
@@ -12051,8 +12319,11 @@
       <c r="D40" s="13" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="13" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
         <v>1133</v>
       </c>
@@ -12065,8 +12336,11 @@
       <c r="D41" s="13" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="13" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
         <v>1137</v>
       </c>
@@ -12079,8 +12353,11 @@
       <c r="D42" s="13" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="13" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>1141</v>
       </c>
@@ -12093,8 +12370,11 @@
       <c r="D43" s="13" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="13" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>1145</v>
       </c>
@@ -12107,8 +12387,11 @@
       <c r="D44" s="13" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="13" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>1149</v>
       </c>
@@ -12121,8 +12404,11 @@
       <c r="D45" s="13" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="13" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
         <v>1153</v>
       </c>
@@ -12135,8 +12421,11 @@
       <c r="D46" s="13" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="13" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
         <v>1157</v>
       </c>
@@ -12149,8 +12438,11 @@
       <c r="D47" s="13" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="13" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
         <v>1161</v>
       </c>
@@ -12163,8 +12455,11 @@
       <c r="D48" s="13" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="13" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>1165</v>
       </c>
@@ -12177,8 +12472,11 @@
       <c r="D49" s="13" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="13" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>1169</v>
       </c>
@@ -12191,8 +12489,11 @@
       <c r="D50" s="13" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="13" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>1173</v>
       </c>
@@ -12204,6 +12505,9 @@
       </c>
       <c r="D51" s="13" t="s">
         <v>1176</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>2092</v>
       </c>
     </row>
   </sheetData>

--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/500TB_TG102LE_ESIM_161024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00CB7A6-E919-424C-9FCF-F45CDFD85FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF836A8-8556-43CA-AED5-3B8DF3476A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6273,9 +6273,6 @@
     <t>007785070558401</t>
   </si>
   <si>
-    <t>007785070583276</t>
-  </si>
-  <si>
     <t>007785070550846</t>
   </si>
   <si>
@@ -6366,9 +6363,6 @@
     <t>007785070552479</t>
   </si>
   <si>
-    <t>007785070549376</t>
-  </si>
-  <si>
     <t>007785070580603</t>
   </si>
   <si>
@@ -6406,6 +6400,12 @@
   </si>
   <si>
     <t>007785070554285</t>
+  </si>
+  <si>
+    <t>007785070552537</t>
+  </si>
+  <si>
+    <t>007785070583490</t>
   </si>
 </sst>
 </file>
@@ -11629,8 +11629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11674,7 +11674,7 @@
         <v>980</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11691,7 +11691,7 @@
         <v>984</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11708,7 +11708,7 @@
         <v>988</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11725,7 +11725,7 @@
         <v>992</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11742,7 +11742,7 @@
         <v>996</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11759,7 +11759,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11776,7 +11776,7 @@
         <v>1004</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11793,7 +11793,7 @@
         <v>1008</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11810,7 +11810,7 @@
         <v>1012</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11827,7 +11827,7 @@
         <v>1016</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11844,7 +11844,7 @@
         <v>1020</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11861,7 +11861,7 @@
         <v>1024</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11878,7 +11878,7 @@
         <v>1028</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11895,7 +11895,7 @@
         <v>1032</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11912,7 +11912,7 @@
         <v>1036</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11929,7 +11929,7 @@
         <v>1040</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11946,7 +11946,7 @@
         <v>1044</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11963,7 +11963,7 @@
         <v>1048</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11980,7 +11980,7 @@
         <v>1052</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>2110</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11997,7 +11997,7 @@
         <v>1056</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12014,7 +12014,7 @@
         <v>1060</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12031,7 +12031,7 @@
         <v>1064</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12048,7 +12048,7 @@
         <v>1068</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12065,7 +12065,7 @@
         <v>1072</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12116,7 +12116,7 @@
         <v>1084</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12150,7 +12150,7 @@
         <v>1092</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12201,7 +12201,7 @@
         <v>1104</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12218,7 +12218,7 @@
         <v>1108</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12235,7 +12235,7 @@
         <v>1112</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -12252,7 +12252,7 @@
         <v>1116</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>2079</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -12269,7 +12269,7 @@
         <v>1120</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12286,7 +12286,7 @@
         <v>1124</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -12303,7 +12303,7 @@
         <v>1128</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -12320,7 +12320,7 @@
         <v>1132</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -12337,7 +12337,7 @@
         <v>1136</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -12354,7 +12354,7 @@
         <v>1140</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -12371,7 +12371,7 @@
         <v>1144</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -12388,7 +12388,7 @@
         <v>1148</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12405,7 +12405,7 @@
         <v>1152</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -12422,7 +12422,7 @@
         <v>1156</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -12439,7 +12439,7 @@
         <v>1160</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -12456,7 +12456,7 @@
         <v>1164</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -12473,7 +12473,7 @@
         <v>1168</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -12490,7 +12490,7 @@
         <v>1172</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -12507,7 +12507,7 @@
         <v>1176</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
